--- a/Metadata/ManualEdits/AppendedSlideMetadata.xlsx
+++ b/Metadata/ManualEdits/AppendedSlideMetadata.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,25 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\NematodeMicrographsOfTheWestKootenays\NematodesOfAnOldGrowthForest\Metadata\ManualEdits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6173F0C-1AB3-4DD8-882A-289345BBE01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C46417-4DD1-44AD-91F7-C623248E9527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="1680" windowWidth="21375" windowHeight="13455" activeTab="2"/>
+    <workbookView xWindow="33090" yWindow="1215" windowWidth="21375" windowHeight="13455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="AppendedSlideMetadata" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="AppendedSlideMetadata" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="131">
   <si>
     <t>Annotated</t>
   </si>
@@ -378,12 +391,54 @@
   <si>
     <t>Aporcelaimidae</t>
   </si>
+  <si>
+    <t>Feeding Type</t>
+  </si>
+  <si>
+    <t>bacterivores</t>
+  </si>
+  <si>
+    <t>omnivores</t>
+  </si>
+  <si>
+    <t>predators</t>
+  </si>
+  <si>
+    <t>herbivore </t>
+  </si>
+  <si>
+    <t>frugivore</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>herbivores </t>
+  </si>
+  <si>
+    <t>fungivores</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -525,6 +580,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -890,7 +957,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -904,6 +971,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -964,7 +1037,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="lperepol" refreshedDate="44709.321846527775" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="159">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lperepol" refreshedDate="44709.321846527775" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="159" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AX160" sheet="AppendedSlideMetadata"/>
   </cacheSource>
@@ -9430,7 +9503,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="50">
     <pivotField showAll="0"/>
@@ -9581,7 +9654,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="50">
     <pivotField showAll="0"/>
@@ -10027,7 +10100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10158,7 +10231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10285,223 +10358,365 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
+    <col min="1" max="2" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="8">
         <f>15+45</f>
         <v>60</v>
       </c>
-      <c r="C2" s="9">
-        <f>+B2/$B$16</f>
+      <c r="D2" s="9">
+        <f t="shared" ref="D2:D15" si="0">+C2/$C$16</f>
         <v>0.21582733812949639</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="8">
         <f>47+7</f>
         <v>54</v>
       </c>
-      <c r="C3" s="9">
-        <f>+B3/$B$16</f>
+      <c r="D3" s="9">
+        <f t="shared" si="0"/>
         <v>0.19424460431654678</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="8">
         <v>45</v>
       </c>
-      <c r="C4" s="9">
-        <f>+B4/$B$16</f>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
         <v>0.16187050359712229</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="8">
         <f>11+23</f>
         <v>34</v>
       </c>
-      <c r="C5" s="9">
-        <f>+B5/$B$16</f>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
         <v>0.1223021582733813</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="8">
         <v>23</v>
       </c>
-      <c r="C6" s="9">
-        <f>+B6/$B$16</f>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
         <v>8.2733812949640287E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="8">
         <f>10+7</f>
         <v>17</v>
       </c>
-      <c r="C7" s="9">
-        <f>+B7/$B$16</f>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
         <v>6.1151079136690649E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="8">
         <v>16</v>
       </c>
-      <c r="C8" s="9">
-        <f>+B8/$B$16</f>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
         <v>5.7553956834532377E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="8">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
-        <f>+B9/$B$16</f>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
         <v>3.9568345323741004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
-        <f>+B10/$B$16</f>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
         <v>2.1582733812949641E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="8">
         <f>2+3</f>
         <v>5</v>
       </c>
-      <c r="C11" s="9">
-        <f>+B11/$B$16</f>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
         <v>1.7985611510791366E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="8">
         <v>4</v>
       </c>
-      <c r="C12" s="9">
-        <f>+B12/$B$16</f>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
         <v>1.4388489208633094E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="C13" s="9">
-        <f>+B13/$B$16</f>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
         <v>3.5971223021582736E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
-        <f>+B14/$B$16</f>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
         <v>3.5971223021582736E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="9">
-        <f>+B15/$B$16</f>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
         <v>3.5971223021582736E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="8">
-        <f>SUM(B2:B15)</f>
+        <v>124</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
+        <f>SUM(C2:C15)</f>
         <v>278</v>
       </c>
-      <c r="C16" s="9">
-        <f t="shared" ref="C3:C16" si="0">+B16/$B$16</f>
+      <c r="D16" s="9">
+        <f t="shared" ref="D16" si="1">+C16/$C$16</f>
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="8">
+        <v>110</v>
+      </c>
+      <c r="C20" s="9">
+        <f>+B20/$B$26</f>
+        <v>0.39568345323741005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="8">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9">
+        <f>+B21/$B$26</f>
+        <v>0.24100719424460432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="8">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9">
+        <f>+B22/$B$26</f>
+        <v>0.20143884892086331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="8">
+        <v>40</v>
+      </c>
+      <c r="C23" s="9">
+        <f>+B23/$B$26</f>
+        <v>0.14388489208633093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9">
+        <f>+B24/$B$26</f>
+        <v>1.4388489208633094E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <f>+B25/$B$26</f>
+        <v>3.5971223021582736E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B20:B25)</f>
+        <v>278</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" ref="C21:C26" si="2">+B26/$B$26</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition descending="1" ref="C2:C15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:C25">
+    <sortCondition descending="1" ref="C20:C25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="http://nemaplex.ucdavis.edu/Taxadata/Qudsidae.htm"/>
-    <hyperlink ref="A6" r:id="rId2" display="http://nemaplex.ucdavis.edu/Taxadata/Aporidae.htm"/>
+    <hyperlink ref="A9" r:id="rId1" display="http://nemaplex.ucdavis.edu/Taxadata/Qudsidae.htm" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" display="http://nemaplex.ucdavis.edu/Taxadata/Aporidae.htm" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -10509,7 +10724,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADC1983-4509-4F3D-A9E1-8488DF3E255D}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
